--- a/Project/and7697_sprint4/Product Backlog.xlsx
+++ b/Project/and7697_sprint4/Product Backlog.xlsx
@@ -1100,10 +1100,10 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1118,11 +1118,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="32579378"/>
-        <c:axId val="18086864"/>
+        <c:axId val="11451979"/>
+        <c:axId val="51323233"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="32579378"/>
+        <c:axId val="11451979"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1196,14 +1196,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="18086864"/>
+        <c:crossAx val="51323233"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="18086864"/>
+        <c:axId val="51323233"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1284,7 +1284,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="32579378"/>
+        <c:crossAx val="11451979"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1579,11 +1579,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="38007085"/>
-        <c:axId val="79880408"/>
+        <c:axId val="41110457"/>
+        <c:axId val="80834475"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="38007085"/>
+        <c:axId val="41110457"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1657,14 +1657,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79880408"/>
+        <c:crossAx val="80834475"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79880408"/>
+        <c:axId val="80834475"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1745,7 +1745,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="38007085"/>
+        <c:crossAx val="41110457"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2081,11 +2081,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="60323934"/>
-        <c:axId val="78266962"/>
+        <c:axId val="41685327"/>
+        <c:axId val="93951082"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="60323934"/>
+        <c:axId val="41685327"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2159,14 +2159,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78266962"/>
+        <c:crossAx val="93951082"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78266962"/>
+        <c:axId val="93951082"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2247,7 +2247,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60323934"/>
+        <c:crossAx val="41685327"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2583,11 +2583,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="75858069"/>
-        <c:axId val="78066725"/>
+        <c:axId val="10276606"/>
+        <c:axId val="13094713"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="75858069"/>
+        <c:axId val="10276606"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2661,14 +2661,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78066725"/>
+        <c:crossAx val="13094713"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78066725"/>
+        <c:axId val="13094713"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2749,7 +2749,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75858069"/>
+        <c:crossAx val="10276606"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3085,11 +3085,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="23507708"/>
-        <c:axId val="51729012"/>
+        <c:axId val="6998720"/>
+        <c:axId val="96614155"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="23507708"/>
+        <c:axId val="6998720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3163,14 +3163,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51729012"/>
+        <c:crossAx val="96614155"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51729012"/>
+        <c:axId val="96614155"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3251,7 +3251,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="23507708"/>
+        <c:crossAx val="6998720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3587,11 +3587,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="9765341"/>
-        <c:axId val="46338758"/>
+        <c:axId val="19080758"/>
+        <c:axId val="22134406"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="9765341"/>
+        <c:axId val="19080758"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3665,14 +3665,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46338758"/>
+        <c:crossAx val="22134406"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="46338758"/>
+        <c:axId val="22134406"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3753,7 +3753,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="9765341"/>
+        <c:crossAx val="19080758"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4089,11 +4089,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="4756767"/>
-        <c:axId val="47255395"/>
+        <c:axId val="94711907"/>
+        <c:axId val="71930026"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="4756767"/>
+        <c:axId val="94711907"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4167,14 +4167,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47255395"/>
+        <c:crossAx val="71930026"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="47255395"/>
+        <c:axId val="71930026"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4255,7 +4255,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4756767"/>
+        <c:crossAx val="94711907"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4294,9 +4294,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>630360</xdr:colOff>
+      <xdr:colOff>630000</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>23040</xdr:rowOff>
+      <xdr:rowOff>22680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4304,8 +4304,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5800680" y="87480"/>
-        <a:ext cx="12393720" cy="2739600"/>
+        <a:off x="5810040" y="87480"/>
+        <a:ext cx="12459960" cy="2739240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4324,9 +4324,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>204120</xdr:colOff>
+      <xdr:colOff>203760</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>79200</xdr:rowOff>
+      <xdr:rowOff>78840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4334,8 +4334,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5743440" y="80640"/>
-        <a:ext cx="12024720" cy="2627280"/>
+        <a:off x="5752800" y="80640"/>
+        <a:ext cx="12090960" cy="2626920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4359,9 +4359,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>4320</xdr:colOff>
+      <xdr:colOff>3960</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>42480</xdr:rowOff>
+      <xdr:rowOff>42120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4370,7 +4370,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2916360" y="23040"/>
-        <a:ext cx="7908120" cy="2747160"/>
+        <a:ext cx="7955280" cy="2746800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4394,9 +4394,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>331920</xdr:colOff>
+      <xdr:colOff>331560</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>19440</xdr:rowOff>
+      <xdr:rowOff>19080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4405,7 +4405,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2478240" y="23040"/>
-        <a:ext cx="5635440" cy="2739600"/>
+        <a:ext cx="5635080" cy="2739240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4429,9 +4429,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>331920</xdr:colOff>
+      <xdr:colOff>331560</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>19440</xdr:rowOff>
+      <xdr:rowOff>19080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4440,7 +4440,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2478240" y="23040"/>
-        <a:ext cx="5635440" cy="2739600"/>
+        <a:ext cx="5635080" cy="2739240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4464,9 +4464,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>331920</xdr:colOff>
+      <xdr:colOff>331560</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>19440</xdr:rowOff>
+      <xdr:rowOff>19080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4475,7 +4475,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2478240" y="23040"/>
-        <a:ext cx="5635440" cy="2739600"/>
+        <a:ext cx="5635080" cy="2739240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4499,9 +4499,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>331920</xdr:colOff>
+      <xdr:colOff>331560</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>19440</xdr:rowOff>
+      <xdr:rowOff>19080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4510,7 +4510,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2478240" y="23040"/>
-        <a:ext cx="5635440" cy="2739600"/>
+        <a:ext cx="5635080" cy="2739240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4530,8 +4530,8 @@
   </sheetPr>
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E38" activeCellId="0" sqref="E38"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E40" activeCellId="0" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -4539,10 +4539,10 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.2834008097166"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="39.8502024291498"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="46.7044534412956"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="40.17004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="47.0242914979757"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.57085020242915"/>
@@ -4668,14 +4668,14 @@
       </c>
       <c r="B12" s="0" t="n">
         <f aca="false">C11-D12</f>
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C12" s="0" t="n">
         <f aca="false">COUNT(B21:B107)</f>
         <v>28</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>43212</v>
@@ -4687,7 +4687,7 @@
       </c>
       <c r="B13" s="0" t="n">
         <f aca="false">C12-D13</f>
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C13" s="0" t="n">
         <f aca="false">COUNT(B21:B108)</f>
@@ -4695,7 +4695,7 @@
       </c>
       <c r="D13" s="1" t="n">
         <f aca="false">D12</f>
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E13" s="2" t="n">
         <v>43219</v>
@@ -4945,6 +4945,9 @@
       <c r="D27" s="7" t="n">
         <v>2</v>
       </c>
+      <c r="E27" s="7" t="n">
+        <v>4</v>
+      </c>
       <c r="F27" s="7" t="s">
         <v>39</v>
       </c>
@@ -4972,6 +4975,9 @@
       <c r="D28" s="8" t="n">
         <v>2</v>
       </c>
+      <c r="E28" s="8" t="n">
+        <v>4</v>
+      </c>
       <c r="F28" s="8" t="s">
         <v>39</v>
       </c>
@@ -4999,6 +5005,9 @@
       <c r="D29" s="7" t="n">
         <v>2</v>
       </c>
+      <c r="E29" s="7" t="n">
+        <v>4</v>
+      </c>
       <c r="F29" s="7" t="s">
         <v>42</v>
       </c>
@@ -5206,6 +5215,9 @@
       <c r="D36" s="11" t="n">
         <v>4</v>
       </c>
+      <c r="E36" s="11" t="n">
+        <v>4</v>
+      </c>
       <c r="F36" s="11" t="s">
         <v>39</v>
       </c>
@@ -5233,6 +5245,9 @@
       <c r="D37" s="12" t="n">
         <v>4</v>
       </c>
+      <c r="E37" s="12" t="n">
+        <v>4</v>
+      </c>
       <c r="F37" s="12" t="s">
         <v>39</v>
       </c>
@@ -5260,6 +5275,9 @@
       <c r="D38" s="11" t="n">
         <v>4</v>
       </c>
+      <c r="E38" s="11" t="n">
+        <v>4</v>
+      </c>
       <c r="F38" s="11" t="s">
         <v>42</v>
       </c>
@@ -5344,6 +5362,9 @@
       <c r="D41" s="14" t="n">
         <v>5</v>
       </c>
+      <c r="E41" s="14" t="n">
+        <v>4</v>
+      </c>
       <c r="F41" s="14" t="s">
         <v>29</v>
       </c>
@@ -5370,6 +5391,9 @@
       </c>
       <c r="D42" s="13" t="n">
         <v>5</v>
+      </c>
+      <c r="E42" s="13" t="n">
+        <v>4</v>
       </c>
       <c r="F42" s="13" t="s">
         <v>29</v>
@@ -5577,8 +5601,8 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="52.3805668016194"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="52.8097165991903"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.5303643724696"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>

--- a/Project/and7697_sprint4/Product Backlog.xlsx
+++ b/Project/and7697_sprint4/Product Backlog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" state="visible" r:id="rId2"/>
@@ -851,929 +851,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:rPr>
-              <a:t>Product Backlog Burn Chart</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Product Backlog'!$B$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Left</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="5b9bd5"/>
-            </a:solidFill>
-            <a:ln w="28440">
-              <a:solidFill>
-                <a:srgbClr val="5b9bd5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:ln w="6407280">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="579d1c"/>
-              </a:solidFill>
-              <a:ln w="2067066720">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="7e0021"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="83caff"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Product Backlog'!$A$8:$A$13</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Start</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Sprint 1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Sprint 2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Sprint 3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Sprint 4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Sprint 5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Product Backlog'!$B$8:$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="0"/>
-        <c:axId val="11451979"/>
-        <c:axId val="51323233"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="11451979"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>Sprint Number</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="51323233"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="51323233"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>Features Left at End of Sprint</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="11451979"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:rPr>
-              <a:t>Product Backlog Burn Chart</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>label 0</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Left</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="5b9bd5"/>
-            </a:solidFill>
-            <a:ln w="28440">
-              <a:solidFill>
-                <a:srgbClr val="5b9bd5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:ln w="6407280">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="579d1c"/>
-              </a:solidFill>
-              <a:ln w="2067066720">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="7e0021"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="83caff"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>categories</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Start</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Sprint 1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Sprint 2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Sprint 3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Sprint 4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Sprint 5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>0</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>22</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="0"/>
-        <c:axId val="41110457"/>
-        <c:axId val="80834475"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="41110457"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>Sprint Number</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="MM/DD/YYYY" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="80834475"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="80834475"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>Features Left at End of Sprint</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="41110457"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2081,11 +1159,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="41685327"/>
-        <c:axId val="93951082"/>
+        <c:axId val="49361713"/>
+        <c:axId val="58393359"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="41685327"/>
+        <c:axId val="49361713"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2159,14 +1237,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93951082"/>
+        <c:crossAx val="58393359"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93951082"/>
+        <c:axId val="58393359"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2247,7 +1325,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41685327"/>
+        <c:crossAx val="49361713"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2275,7 +1353,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2583,11 +1661,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="10276606"/>
-        <c:axId val="13094713"/>
+        <c:axId val="40309888"/>
+        <c:axId val="60067954"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="10276606"/>
+        <c:axId val="40309888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2661,14 +1739,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="13094713"/>
+        <c:crossAx val="60067954"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="13094713"/>
+        <c:axId val="60067954"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2749,7 +1827,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="10276606"/>
+        <c:crossAx val="40309888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2777,7 +1855,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3085,11 +2163,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="6998720"/>
-        <c:axId val="96614155"/>
+        <c:axId val="64891630"/>
+        <c:axId val="78155265"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="6998720"/>
+        <c:axId val="64891630"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3163,14 +2241,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96614155"/>
+        <c:crossAx val="78155265"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96614155"/>
+        <c:axId val="78155265"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3251,7 +2329,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6998720"/>
+        <c:crossAx val="64891630"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3279,7 +2357,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3587,11 +2665,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="19080758"/>
-        <c:axId val="22134406"/>
+        <c:axId val="81186570"/>
+        <c:axId val="38208509"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="19080758"/>
+        <c:axId val="81186570"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3665,14 +2743,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="22134406"/>
+        <c:crossAx val="38208509"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="22134406"/>
+        <c:axId val="38208509"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3753,7 +2831,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="19080758"/>
+        <c:crossAx val="81186570"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3781,7 +2859,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4089,11 +3167,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="94711907"/>
-        <c:axId val="71930026"/>
+        <c:axId val="66886927"/>
+        <c:axId val="69166363"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="94711907"/>
+        <c:axId val="66886927"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4167,14 +3245,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71930026"/>
+        <c:crossAx val="69166363"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71930026"/>
+        <c:axId val="69166363"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4255,7 +3333,929 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94711907"/>
+        <c:crossAx val="66886927"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="d9d9d9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>Product Backlog Burn Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Product Backlog'!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Left</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="5b9bd5"/>
+            </a:solidFill>
+            <a:ln w="28440">
+              <a:solidFill>
+                <a:srgbClr val="5b9bd5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:ln w="6407280">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+              <a:ln w="2067066720">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7e0021"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="83caff"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Product Backlog'!$A$8:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Start</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sprint 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sprint 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sprint 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sprint 4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sprint 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Product Backlog'!$B$8:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="30581476"/>
+        <c:axId val="68919555"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="30581476"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Sprint Number</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="d9d9d9"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="68919555"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="68919555"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="d9d9d9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Features Left at End of Sprint</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="30581476"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="d9d9d9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>Product Backlog Burn Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>label 0</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Left</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="5b9bd5"/>
+            </a:solidFill>
+            <a:ln w="28440">
+              <a:solidFill>
+                <a:srgbClr val="5b9bd5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:ln w="6407280">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+              <a:ln w="2067066720">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7e0021"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="83caff"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>categories</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Start</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sprint 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sprint 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sprint 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sprint 4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sprint 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>0</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="81362879"/>
+        <c:axId val="87093365"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="81362879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Sprint Number</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="MM/DD/YYYY" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="d9d9d9"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="87093365"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="87093365"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="d9d9d9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Features Left at End of Sprint</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="81362879"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4294,9 +4294,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>630000</xdr:colOff>
+      <xdr:colOff>629640</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>22680</xdr:rowOff>
+      <xdr:rowOff>22320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4304,8 +4304,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5810040" y="87480"/>
-        <a:ext cx="12459960" cy="2739240"/>
+        <a:off x="5819760" y="87480"/>
+        <a:ext cx="12526200" cy="2738880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4324,9 +4324,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>203760</xdr:colOff>
+      <xdr:colOff>203400</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>78840</xdr:rowOff>
+      <xdr:rowOff>78480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4334,8 +4334,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5752800" y="80640"/>
-        <a:ext cx="12090960" cy="2626920"/>
+        <a:off x="5762520" y="80640"/>
+        <a:ext cx="12157200" cy="2626560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4359,9 +4359,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>3960</xdr:colOff>
+      <xdr:colOff>3600</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>42120</xdr:rowOff>
+      <xdr:rowOff>41760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4370,7 +4370,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2916360" y="23040"/>
-        <a:ext cx="7955280" cy="2746800"/>
+        <a:ext cx="8002800" cy="2746440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4394,9 +4394,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>331560</xdr:colOff>
+      <xdr:colOff>331200</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>19080</xdr:rowOff>
+      <xdr:rowOff>18720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4405,7 +4405,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2478240" y="23040"/>
-        <a:ext cx="5635080" cy="2739240"/>
+        <a:ext cx="5634720" cy="2738880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4429,9 +4429,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>331560</xdr:colOff>
+      <xdr:colOff>331200</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>19080</xdr:rowOff>
+      <xdr:rowOff>18720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4440,7 +4440,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2478240" y="23040"/>
-        <a:ext cx="5635080" cy="2739240"/>
+        <a:ext cx="5634720" cy="2738880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4464,9 +4464,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>331560</xdr:colOff>
+      <xdr:colOff>331200</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>19080</xdr:rowOff>
+      <xdr:rowOff>18720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4475,7 +4475,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2478240" y="23040"/>
-        <a:ext cx="5635080" cy="2739240"/>
+        <a:ext cx="5634720" cy="2738880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4499,9 +4499,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>331560</xdr:colOff>
+      <xdr:colOff>331200</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>19080</xdr:rowOff>
+      <xdr:rowOff>18720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4510,7 +4510,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2478240" y="23040"/>
-        <a:ext cx="5635080" cy="2739240"/>
+        <a:ext cx="5634720" cy="2738880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4530,7 +4530,7 @@
   </sheetPr>
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E40" activeCellId="0" sqref="E40"/>
     </sheetView>
   </sheetViews>
@@ -4539,10 +4539,10 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="40.17004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="47.0242914979757"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="40.5991902834008"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="47.3481781376518"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.57085020242915"/>
@@ -4668,14 +4668,14 @@
       </c>
       <c r="B12" s="0" t="n">
         <f aca="false">C11-D12</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" s="0" t="n">
         <f aca="false">COUNT(B21:B107)</f>
         <v>28</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>43212</v>
@@ -4687,7 +4687,7 @@
       </c>
       <c r="B13" s="0" t="n">
         <f aca="false">C12-D13</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" s="0" t="n">
         <f aca="false">COUNT(B21:B108)</f>
@@ -4695,7 +4695,7 @@
       </c>
       <c r="D13" s="1" t="n">
         <f aca="false">D12</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E13" s="2" t="n">
         <v>43219</v>
@@ -5334,6 +5334,9 @@
       </c>
       <c r="D40" s="13" t="n">
         <v>5</v>
+      </c>
+      <c r="E40" s="13" t="n">
+        <v>4</v>
       </c>
       <c r="F40" s="13" t="s">
         <v>29</v>
@@ -5601,8 +5604,8 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="52.8097165991903"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="53.2388663967611"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.6396761133603"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
